--- a/biology/Médecine/Muscle_abaisseur_de_la_lèvre_inférieure/Muscle_abaisseur_de_la_lèvre_inférieure.xlsx
+++ b/biology/Médecine/Muscle_abaisseur_de_la_lèvre_inférieure/Muscle_abaisseur_de_la_lèvre_inférieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_abaisseur_de_la_l%C3%A8vre_inf%C3%A9rieure</t>
+          <t>Muscle_abaisseur_de_la_lèvre_inférieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle abaisseur de la lèvre inférieure (en latin : Musculus depressor labii inferioris) ou muscle carré du menton est un petit muscle pair losangique situé dans la partie latérale du menton.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_abaisseur_de_la_l%C3%A8vre_inf%C3%A9rieure</t>
+          <t>Muscle_abaisseur_de_la_lèvre_inférieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Origine : il nait du tiers antérieur de la ligne oblique externe de la mandibule
 Trajet : il se dirige en haut et en dedans
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_abaisseur_de_la_l%C3%A8vre_inf%C3%A9rieure</t>
+          <t>Muscle_abaisseur_de_la_lèvre_inférieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par des rameaux mentonniers de la branche cervico-faciale du nerf facial.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_abaisseur_de_la_l%C3%A8vre_inf%C3%A9rieure</t>
+          <t>Muscle_abaisseur_de_la_lèvre_inférieure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est vascularisé par l'artère labiale inférieure.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_abaisseur_de_la_l%C3%A8vre_inf%C3%A9rieure</t>
+          <t>Muscle_abaisseur_de_la_lèvre_inférieure</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il abaisse la lèvre inférieure qu'il porte en bas et en dehors.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_abaisseur_de_la_l%C3%A8vre_inf%C3%A9rieure</t>
+          <t>Muscle_abaisseur_de_la_lèvre_inférieure</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il nait sous le muscle abaisseur de l'angle de la bouche, s'en dégage par le haut et le dedans pour passer en avant du muscle orbiculaire de la bouche et du muscle mentonnier
 </t>
